--- a/IRSensorCalibration/ThermistorCalibration.xlsx
+++ b/IRSensorCalibration/ThermistorCalibration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34df67a0bb732fd6/UCLA Spring 2022/164DB/IRSensorCalibration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yogur\Documents\GitHub\164D-Project\IRSensorCalibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2C559B9-2DC7-4F90-A2E0-8CA7C190CC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBDA1BB-B5EF-4B06-9254-124C65743110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13008" yWindow="3588" windowWidth="17280" windowHeight="8964" xr2:uid="{D30C86DD-4ED9-4B70-B4C8-C4614239F1E1}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="28800" windowHeight="15435" xr2:uid="{D30C86DD-4ED9-4B70-B4C8-C4614239F1E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,17 +398,17 @@
   <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2:B102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -419,1213 +419,1213 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>323.5</v>
       </c>
       <c r="B2">
-        <f>2.92*A2</f>
-        <v>944.62</v>
+        <f>2.69*A2</f>
+        <v>870.21500000000003</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>307.66000000000003</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="0">2.92*A3</f>
-        <v>898.36720000000003</v>
+        <f t="shared" ref="B3:B66" si="0">2.69*A3</f>
+        <v>827.60540000000003</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>292.68</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>854.62559999999996</v>
+        <v>787.30920000000003</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>278.51</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>813.24919999999997</v>
+        <v>749.19189999999992</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>265.10000000000002</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>774.0920000000001</v>
+        <v>713.11900000000003</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>252.41</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>737.03719999999998</v>
+        <v>678.98289999999997</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>240.4</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>701.96799999999996</v>
+        <v>646.67600000000004</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>229.01</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>668.70920000000001</v>
+        <v>616.03689999999995</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>218.23</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>637.23159999999996</v>
+        <v>587.03869999999995</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>208.01</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>607.38919999999996</v>
+        <v>559.54689999999994</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>198.32</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>579.09439999999995</v>
+        <v>533.48079999999993</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>189.14</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>552.28879999999992</v>
+        <v>508.78659999999996</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>180.42</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>526.82639999999992</v>
+        <v>485.32979999999998</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>172.16</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>502.7072</v>
+        <v>463.11039999999997</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>164.31</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>479.78519999999997</v>
+        <v>441.9939</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>156.86000000000001</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>458.03120000000001</v>
+        <v>421.95340000000004</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>149.79</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>437.38679999999999</v>
+        <v>402.93509999999998</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>143.08000000000001</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>417.79360000000003</v>
+        <v>384.88520000000005</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>136.69</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>399.13479999999998</v>
+        <v>367.6961</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>130.63</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>381.43959999999998</v>
+        <v>351.3947</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>124.87</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>364.62040000000002</v>
+        <v>335.90030000000002</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>119.38</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>348.58959999999996</v>
+        <v>321.13219999999995</v>
       </c>
       <c r="C23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>114.17</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>333.37639999999999</v>
+        <v>307.1173</v>
       </c>
       <c r="C24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>109.21</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>318.89319999999998</v>
+        <v>293.7749</v>
       </c>
       <c r="C25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>104.49</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>305.11079999999998</v>
+        <v>281.07810000000001</v>
       </c>
       <c r="C26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>100</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="C27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>95.72</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>279.50239999999997</v>
+        <v>257.48680000000002</v>
       </c>
       <c r="C28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>91.65</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>267.61799999999999</v>
+        <v>246.5385</v>
       </c>
       <c r="C29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>87.77</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>256.28839999999997</v>
+        <v>236.10129999999998</v>
       </c>
       <c r="C30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>84.08</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>245.5136</v>
+        <v>226.17519999999999</v>
       </c>
       <c r="C31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>80.55</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>235.20599999999999</v>
+        <v>216.67949999999999</v>
       </c>
       <c r="C32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>77.2</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>225.42400000000001</v>
+        <v>207.66800000000001</v>
       </c>
       <c r="C33">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>74</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>216.07999999999998</v>
+        <v>199.06</v>
       </c>
       <c r="C34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>70.94</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>207.14479999999998</v>
+        <v>190.82859999999999</v>
       </c>
       <c r="C35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>68.03</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>198.64760000000001</v>
+        <v>183.00069999999999</v>
       </c>
       <c r="C36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>65.25</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>190.53</v>
+        <v>175.52250000000001</v>
       </c>
       <c r="C37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>62.6</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>182.792</v>
+        <v>168.39400000000001</v>
       </c>
       <c r="C38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>60.07</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>175.40440000000001</v>
+        <v>161.5883</v>
       </c>
       <c r="C39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>57.66</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>168.3672</v>
+        <v>155.10539999999997</v>
       </c>
       <c r="C40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>55.35</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>161.62200000000001</v>
+        <v>148.89150000000001</v>
       </c>
       <c r="C41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>53.14</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>155.1688</v>
+        <v>142.94659999999999</v>
       </c>
       <c r="C42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>51.04</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>149.0368</v>
+        <v>137.29759999999999</v>
       </c>
       <c r="C43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>49.03</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>143.16759999999999</v>
+        <v>131.89070000000001</v>
       </c>
       <c r="C44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>47.1</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>137.53200000000001</v>
+        <v>126.699</v>
       </c>
       <c r="C45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45.26</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>132.1592</v>
+        <v>121.74939999999999</v>
       </c>
       <c r="C46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>43.5</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>127.02</v>
+        <v>117.015</v>
       </c>
       <c r="C47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>41.82</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>122.1144</v>
+        <v>112.4958</v>
       </c>
       <c r="C48">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>40.21</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>117.4132</v>
+        <v>108.1649</v>
       </c>
       <c r="C49">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>38.67</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>112.9164</v>
+        <v>104.0223</v>
       </c>
       <c r="C50">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>37.200000000000003</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>108.62400000000001</v>
+        <v>100.06800000000001</v>
       </c>
       <c r="C51">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>35.79</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>104.5068</v>
+        <v>96.275099999999995</v>
       </c>
       <c r="C52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>34.44</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>100.56479999999999</v>
+        <v>92.643599999999992</v>
       </c>
       <c r="C53">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>33.14</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>96.768799999999999</v>
+        <v>89.146600000000007</v>
       </c>
       <c r="C54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>31.91</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>93.177199999999999</v>
+        <v>85.837900000000005</v>
       </c>
       <c r="C55">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>30.72</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>89.702399999999997</v>
+        <v>82.636799999999994</v>
       </c>
       <c r="C56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>29.58</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>86.373599999999996</v>
+        <v>79.5702</v>
       </c>
       <c r="C57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>28.49</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>83.190799999999996</v>
+        <v>76.638099999999994</v>
       </c>
       <c r="C58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>27.45</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>80.153999999999996</v>
+        <v>73.840499999999992</v>
       </c>
       <c r="C59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>26.45</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>77.233999999999995</v>
+        <v>71.150499999999994</v>
       </c>
       <c r="C60">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>25.484999999999999</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>74.416200000000003</v>
+        <v>68.554649999999995</v>
       </c>
       <c r="C61">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>24.564</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>71.726879999999994</v>
+        <v>66.077159999999992</v>
       </c>
       <c r="C62">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>23.68</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>69.145600000000002</v>
+        <v>63.699199999999998</v>
       </c>
       <c r="C63">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>22.832000000000001</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>66.669439999999994</v>
+        <v>61.418080000000003</v>
       </c>
       <c r="C64">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>22.018000000000001</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>64.292559999999995</v>
+        <v>59.22842</v>
       </c>
       <c r="C65">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>21.236000000000001</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>62.009120000000003</v>
+        <v>57.124839999999999</v>
       </c>
       <c r="C66">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>20.486000000000001</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B102" si="1">2.92*A67</f>
-        <v>59.819119999999998</v>
+        <f t="shared" ref="B67:B102" si="1">2.69*A67</f>
+        <v>55.107340000000001</v>
       </c>
       <c r="C67">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>19.765999999999998</v>
       </c>
       <c r="B68">
         <f t="shared" si="1"/>
-        <v>57.716719999999995</v>
+        <v>53.170539999999995</v>
       </c>
       <c r="C68">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>19.074000000000002</v>
       </c>
       <c r="B69">
         <f t="shared" si="1"/>
-        <v>55.696080000000002</v>
+        <v>51.309060000000002</v>
       </c>
       <c r="C69">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>18.41</v>
       </c>
       <c r="B70">
         <f t="shared" si="1"/>
-        <v>53.757199999999997</v>
+        <v>49.5229</v>
       </c>
       <c r="C70">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>17.771000000000001</v>
       </c>
       <c r="B71">
         <f t="shared" si="1"/>
-        <v>51.89132</v>
+        <v>47.803989999999999</v>
       </c>
       <c r="C71">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>17.158000000000001</v>
       </c>
       <c r="B72">
         <f t="shared" si="1"/>
-        <v>50.10136</v>
+        <v>46.15502</v>
       </c>
       <c r="C72">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>16.568000000000001</v>
       </c>
       <c r="B73">
         <f t="shared" si="1"/>
-        <v>48.37856</v>
+        <v>44.567920000000001</v>
       </c>
       <c r="C73">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>16.001999999999999</v>
       </c>
       <c r="B74">
         <f t="shared" si="1"/>
-        <v>46.725839999999998</v>
+        <v>43.045379999999994</v>
       </c>
       <c r="C74">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>15.457000000000001</v>
       </c>
       <c r="B75">
         <f t="shared" si="1"/>
-        <v>45.134439999999998</v>
+        <v>41.579329999999999</v>
       </c>
       <c r="C75">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>14.933</v>
       </c>
       <c r="B76">
         <f t="shared" si="1"/>
-        <v>43.60436</v>
+        <v>40.16977</v>
       </c>
       <c r="C76">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>14.429</v>
       </c>
       <c r="B77">
         <f t="shared" si="1"/>
-        <v>42.132680000000001</v>
+        <v>38.814010000000003</v>
       </c>
       <c r="C77">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>13.944000000000001</v>
       </c>
       <c r="B78">
         <f t="shared" si="1"/>
-        <v>40.716480000000004</v>
+        <v>37.509360000000001</v>
       </c>
       <c r="C78">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>13.478</v>
       </c>
       <c r="B79">
         <f t="shared" si="1"/>
-        <v>39.355759999999997</v>
+        <v>36.25582</v>
       </c>
       <c r="C79">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>13.029</v>
       </c>
       <c r="B80">
         <f t="shared" si="1"/>
-        <v>38.04468</v>
+        <v>35.048009999999998</v>
       </c>
       <c r="C80">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>12.598000000000001</v>
       </c>
       <c r="B81">
         <f t="shared" si="1"/>
-        <v>36.786160000000002</v>
+        <v>33.888620000000003</v>
       </c>
       <c r="C81">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>12.182</v>
       </c>
       <c r="B82">
         <f t="shared" si="1"/>
-        <v>35.571440000000003</v>
+        <v>32.769579999999998</v>
       </c>
       <c r="C82">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>11.782</v>
       </c>
       <c r="B83">
         <f t="shared" si="1"/>
-        <v>34.403439999999996</v>
+        <v>31.693580000000001</v>
       </c>
       <c r="C83">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>11.397</v>
       </c>
       <c r="B84">
         <f t="shared" si="1"/>
-        <v>33.279240000000001</v>
+        <v>30.65793</v>
       </c>
       <c r="C84">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>11.026</v>
       </c>
       <c r="B85">
         <f t="shared" si="1"/>
-        <v>32.195920000000001</v>
+        <v>29.659939999999999</v>
       </c>
       <c r="C85">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>10.667999999999999</v>
       </c>
       <c r="B86">
         <f t="shared" si="1"/>
-        <v>31.150559999999999</v>
+        <v>28.696919999999999</v>
       </c>
       <c r="C86">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>10.324</v>
       </c>
       <c r="B87">
         <f t="shared" si="1"/>
-        <v>30.146079999999998</v>
+        <v>27.771559999999997</v>
       </c>
       <c r="C87">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>9.9920000000000009</v>
       </c>
       <c r="B88">
         <f t="shared" si="1"/>
-        <v>29.176640000000003</v>
+        <v>26.878480000000003</v>
       </c>
       <c r="C88">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>9.673</v>
       </c>
       <c r="B89">
         <f t="shared" si="1"/>
-        <v>28.245159999999998</v>
+        <v>26.02037</v>
       </c>
       <c r="C89">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>9.3640000000000008</v>
       </c>
       <c r="B90">
         <f t="shared" si="1"/>
-        <v>27.342880000000001</v>
+        <v>25.189160000000001</v>
       </c>
       <c r="C90">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>9.0670000000000002</v>
       </c>
       <c r="B91">
         <f t="shared" si="1"/>
-        <v>26.475639999999999</v>
+        <v>24.390229999999999</v>
       </c>
       <c r="C91">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>8.7810000000000006</v>
       </c>
       <c r="B92">
         <f t="shared" si="1"/>
-        <v>25.640520000000002</v>
+        <v>23.620890000000003</v>
       </c>
       <c r="C92">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>8.5050000000000008</v>
       </c>
       <c r="B93">
         <f t="shared" si="1"/>
-        <v>24.834600000000002</v>
+        <v>22.878450000000001</v>
       </c>
       <c r="C93">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>8.2390000000000008</v>
       </c>
       <c r="B94">
         <f t="shared" si="1"/>
-        <v>24.057880000000001</v>
+        <v>22.16291</v>
       </c>
       <c r="C94">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>7.9820000000000002</v>
       </c>
       <c r="B95">
         <f t="shared" si="1"/>
-        <v>23.30744</v>
+        <v>21.471579999999999</v>
       </c>
       <c r="C95">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>7.734</v>
       </c>
       <c r="B96">
         <f t="shared" si="1"/>
-        <v>22.583279999999998</v>
+        <v>20.804459999999999</v>
       </c>
       <c r="C96">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>7.4950000000000001</v>
       </c>
       <c r="B97">
         <f t="shared" si="1"/>
-        <v>21.885400000000001</v>
+        <v>20.161549999999998</v>
       </c>
       <c r="C97">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>7.2649999999999997</v>
       </c>
       <c r="B98">
         <f t="shared" si="1"/>
-        <v>21.213799999999999</v>
+        <v>19.542849999999998</v>
       </c>
       <c r="C98">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>7.0419999999999998</v>
       </c>
       <c r="B99">
         <f t="shared" si="1"/>
-        <v>20.562639999999998</v>
+        <v>18.942979999999999</v>
       </c>
       <c r="C99">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>6.827</v>
       </c>
       <c r="B100">
         <f t="shared" si="1"/>
-        <v>19.934839999999998</v>
+        <v>18.364629999999998</v>
       </c>
       <c r="C100">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>6.62</v>
       </c>
       <c r="B101">
         <f t="shared" si="1"/>
-        <v>19.330400000000001</v>
+        <v>17.8078</v>
       </c>
       <c r="C101">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>6.42</v>
       </c>
       <c r="B102">
         <f t="shared" si="1"/>
-        <v>18.746399999999998</v>
+        <v>17.2698</v>
       </c>
       <c r="C102">
         <v>100</v>

--- a/IRSensorCalibration/ThermistorCalibration.xlsx
+++ b/IRSensorCalibration/ThermistorCalibration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yogur\Documents\GitHub\164D-Project\IRSensorCalibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBDA1BB-B5EF-4B06-9254-124C65743110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3D7FF1-4836-46A9-B538-D812BDA8960B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="28800" windowHeight="15435" xr2:uid="{D30C86DD-4ED9-4B70-B4C8-C4614239F1E1}"/>
+    <workbookView xWindow="6180" yWindow="16230" windowWidth="28800" windowHeight="15435" xr2:uid="{D30C86DD-4ED9-4B70-B4C8-C4614239F1E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Temp</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>Voltage (mV)</t>
+  </si>
+  <si>
+    <t>Adj. R</t>
+  </si>
+  <si>
+    <t>Voltage</t>
   </si>
 </sst>
 </file>
@@ -395,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1832D5CF-A6FA-4F3E-A11E-93069D38836D}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B102"/>
+      <selection activeCell="E1" sqref="E1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,9 +412,10 @@
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -418,1216 +425,2336 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>323.5</v>
       </c>
       <c r="B2">
-        <f>2.69*A2</f>
-        <v>870.21500000000003</v>
+        <f>2.89*A2</f>
+        <v>934.91500000000008</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>A2*1.2</f>
+        <v>388.2</v>
+      </c>
+      <c r="F2">
+        <f>2.91*E2</f>
+        <v>1129.662</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>307.66000000000003</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="0">2.69*A3</f>
-        <v>827.60540000000003</v>
+        <f t="shared" ref="B3:B66" si="0">2.89*A3</f>
+        <v>889.13740000000007</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="1">A3*1.2</f>
+        <v>369.19200000000001</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="2">2.91*E3</f>
+        <v>1074.3487200000002</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>292.68</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>787.30920000000003</v>
+        <v>845.84520000000009</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>351.21600000000001</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>1022.0385600000001</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>278.51</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>749.19189999999992</v>
+        <v>804.89390000000003</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>334.21199999999999</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>972.55691999999999</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>265.10000000000002</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>713.11900000000003</v>
+        <v>766.13900000000012</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>318.12</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>925.72920000000011</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>252.41</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>678.98289999999997</v>
+        <v>729.46490000000006</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>302.892</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>881.41572000000008</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>240.4</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>646.67600000000004</v>
+        <v>694.75600000000009</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>288.48</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>839.47680000000014</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>229.01</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>616.03689999999995</v>
+        <v>661.83889999999997</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>274.81199999999995</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>799.70291999999995</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>218.23</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>587.03869999999995</v>
+        <v>630.68470000000002</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>261.87599999999998</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>762.05916000000002</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>208.01</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>559.54689999999994</v>
+        <v>601.14890000000003</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>249.61199999999997</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>726.37091999999996</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>198.32</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>533.48079999999993</v>
+        <v>573.14480000000003</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>237.98399999999998</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>692.53343999999993</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>189.14</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>508.78659999999996</v>
+        <v>546.6146</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>226.96799999999999</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>660.47688000000005</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>180.42</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>485.32979999999998</v>
+        <v>521.41380000000004</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>216.50399999999999</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>630.02664000000004</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>172.16</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>463.11039999999997</v>
+        <v>497.54239999999999</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>206.59199999999998</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>601.18272000000002</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>164.31</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>441.9939</v>
+        <v>474.85590000000002</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>197.172</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>573.77052000000003</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>156.86000000000001</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>421.95340000000004</v>
+        <v>453.32540000000006</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>188.232</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>547.75512000000003</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>149.79</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>402.93509999999998</v>
+        <v>432.8931</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>179.74799999999999</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>523.06668000000002</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>143.08000000000001</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>384.88520000000005</v>
+        <v>413.50120000000004</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>171.696</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>499.63535999999999</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>136.69</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>367.6961</v>
+        <v>395.03410000000002</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>164.02799999999999</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>477.32148000000001</v>
+      </c>
+      <c r="G20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>130.63</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>351.3947</v>
+        <v>377.52069999999998</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>156.756</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>456.15996000000001</v>
+      </c>
+      <c r="G21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>124.87</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>335.90030000000002</v>
+        <v>360.87430000000001</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>149.84399999999999</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>436.04604</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>119.38</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>321.13219999999995</v>
+        <v>345.00819999999999</v>
       </c>
       <c r="C23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>143.256</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>416.87496000000004</v>
+      </c>
+      <c r="G23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>114.17</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>307.1173</v>
+        <v>329.9513</v>
       </c>
       <c r="C24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>137.00399999999999</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>398.68164000000002</v>
+      </c>
+      <c r="G24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>109.21</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>293.7749</v>
+        <v>315.61689999999999</v>
       </c>
       <c r="C25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>131.05199999999999</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>381.36131999999998</v>
+      </c>
+      <c r="G25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>104.49</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>281.07810000000001</v>
+        <v>301.97609999999997</v>
       </c>
       <c r="C26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>125.38799999999999</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>364.87907999999999</v>
+      </c>
+      <c r="G26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>100</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="C27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>349.20000000000005</v>
+      </c>
+      <c r="G27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>95.72</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>257.48680000000002</v>
+        <v>276.63080000000002</v>
       </c>
       <c r="C28">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>114.86399999999999</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>334.25423999999998</v>
+      </c>
+      <c r="G28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>91.65</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>246.5385</v>
+        <v>264.86850000000004</v>
       </c>
       <c r="C29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>109.98</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>320.04180000000002</v>
+      </c>
+      <c r="G29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>87.77</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>236.10129999999998</v>
+        <v>253.65530000000001</v>
       </c>
       <c r="C30">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>105.324</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>306.49284</v>
+      </c>
+      <c r="G30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>84.08</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>226.17519999999999</v>
+        <v>242.99119999999999</v>
       </c>
       <c r="C31">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>100.896</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>293.60736000000003</v>
+      </c>
+      <c r="G31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>80.55</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>216.67949999999999</v>
+        <v>232.7895</v>
       </c>
       <c r="C32">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>96.66</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>281.28059999999999</v>
+      </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>77.2</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>207.66800000000001</v>
+        <v>223.108</v>
       </c>
       <c r="C33">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>92.64</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>269.58240000000001</v>
+      </c>
+      <c r="G33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>74</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>199.06</v>
+        <v>213.86</v>
       </c>
       <c r="C34">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>88.8</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>258.40800000000002</v>
+      </c>
+      <c r="G34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>70.94</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>190.82859999999999</v>
+        <v>205.01660000000001</v>
       </c>
       <c r="C35">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>85.128</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>247.72248000000002</v>
+      </c>
+      <c r="G35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>68.03</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>183.00069999999999</v>
+        <v>196.60670000000002</v>
       </c>
       <c r="C36">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>81.635999999999996</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>237.56075999999999</v>
+      </c>
+      <c r="G36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>65.25</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>175.52250000000001</v>
+        <v>188.57250000000002</v>
       </c>
       <c r="C37">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>78.3</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>227.85300000000001</v>
+      </c>
+      <c r="G37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>62.6</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>168.39400000000001</v>
+        <v>180.91400000000002</v>
       </c>
       <c r="C38">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>75.12</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>218.59920000000002</v>
+      </c>
+      <c r="G38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>60.07</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>161.5883</v>
+        <v>173.60230000000001</v>
       </c>
       <c r="C39">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>72.084000000000003</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>209.76444000000001</v>
+      </c>
+      <c r="G39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>57.66</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>155.10539999999997</v>
+        <v>166.63739999999999</v>
       </c>
       <c r="C40">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>69.191999999999993</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>201.34871999999999</v>
+      </c>
+      <c r="G40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>55.35</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>148.89150000000001</v>
+        <v>159.9615</v>
       </c>
       <c r="C41">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>66.42</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>193.28220000000002</v>
+      </c>
+      <c r="G41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>53.14</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>142.94659999999999</v>
+        <v>153.5746</v>
       </c>
       <c r="C42">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>63.768000000000001</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>185.56488000000002</v>
+      </c>
+      <c r="G42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>51.04</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>137.29759999999999</v>
+        <v>147.50560000000002</v>
       </c>
       <c r="C43">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>61.247999999999998</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>178.23168000000001</v>
+      </c>
+      <c r="G43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>49.03</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>131.89070000000001</v>
+        <v>141.69670000000002</v>
       </c>
       <c r="C44">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>58.835999999999999</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>171.21276</v>
+      </c>
+      <c r="G44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>47.1</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>126.699</v>
+        <v>136.119</v>
       </c>
       <c r="C45">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>56.52</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>164.47320000000002</v>
+      </c>
+      <c r="G45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45.26</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>121.74939999999999</v>
+        <v>130.8014</v>
       </c>
       <c r="C46">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>54.311999999999998</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>158.04792</v>
+      </c>
+      <c r="G46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>43.5</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>117.015</v>
+        <v>125.715</v>
       </c>
       <c r="C47">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>52.199999999999996</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>151.90199999999999</v>
+      </c>
+      <c r="G47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>41.82</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>112.4958</v>
+        <v>120.85980000000001</v>
       </c>
       <c r="C48">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>50.183999999999997</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>146.03543999999999</v>
+      </c>
+      <c r="G48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>40.21</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>108.1649</v>
+        <v>116.2069</v>
       </c>
       <c r="C49">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>48.252000000000002</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>140.41332000000003</v>
+      </c>
+      <c r="G49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>38.67</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>104.0223</v>
+        <v>111.75630000000001</v>
       </c>
       <c r="C50">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>46.404000000000003</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>135.03564000000003</v>
+      </c>
+      <c r="G50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>37.200000000000003</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>100.06800000000001</v>
+        <v>107.50800000000001</v>
       </c>
       <c r="C51">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>44.64</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>129.9024</v>
+      </c>
+      <c r="G51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>35.79</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>96.275099999999995</v>
+        <v>103.4331</v>
       </c>
       <c r="C52">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>42.948</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>124.97868000000001</v>
+      </c>
+      <c r="G52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>34.44</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>92.643599999999992</v>
+        <v>99.531599999999997</v>
       </c>
       <c r="C53">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>41.327999999999996</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>120.26447999999999</v>
+      </c>
+      <c r="G53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>33.14</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>89.146600000000007</v>
+        <v>95.774600000000007</v>
       </c>
       <c r="C54">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>39.768000000000001</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>115.72488000000001</v>
+      </c>
+      <c r="G54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>31.91</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>85.837900000000005</v>
+        <v>92.21990000000001</v>
       </c>
       <c r="C55">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>38.292000000000002</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>111.42972</v>
+      </c>
+      <c r="G55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>30.72</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>82.636799999999994</v>
+        <v>88.780799999999999</v>
       </c>
       <c r="C56">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>36.863999999999997</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>107.27423999999999</v>
+      </c>
+      <c r="G56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>29.58</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>79.5702</v>
+        <v>85.486199999999997</v>
       </c>
       <c r="C57">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>35.495999999999995</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>103.29335999999999</v>
+      </c>
+      <c r="G57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>28.49</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>76.638099999999994</v>
+        <v>82.336100000000002</v>
       </c>
       <c r="C58">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>34.187999999999995</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>99.487079999999992</v>
+      </c>
+      <c r="G58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>27.45</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>73.840499999999992</v>
+        <v>79.330500000000001</v>
       </c>
       <c r="C59">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>32.94</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="2"/>
+        <v>95.855400000000003</v>
+      </c>
+      <c r="G59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>26.45</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>71.150499999999994</v>
+        <v>76.4405</v>
       </c>
       <c r="C60">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>31.74</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="2"/>
+        <v>92.363399999999999</v>
+      </c>
+      <c r="G60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>25.484999999999999</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>68.554649999999995</v>
+        <v>73.651650000000004</v>
       </c>
       <c r="C61">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>30.581999999999997</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="2"/>
+        <v>88.993619999999993</v>
+      </c>
+      <c r="G61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>24.564</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>66.077159999999992</v>
+        <v>70.989959999999996</v>
       </c>
       <c r="C62">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>29.476799999999997</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="2"/>
+        <v>85.777487999999991</v>
+      </c>
+      <c r="G62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>23.68</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>63.699199999999998</v>
+        <v>68.435200000000009</v>
       </c>
       <c r="C63">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>28.416</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="2"/>
+        <v>82.690560000000005</v>
+      </c>
+      <c r="G63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>22.832000000000001</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>61.418080000000003</v>
+        <v>65.984480000000005</v>
       </c>
       <c r="C64">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>27.398399999999999</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="2"/>
+        <v>79.729343999999998</v>
+      </c>
+      <c r="G64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>22.018000000000001</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>59.22842</v>
+        <v>63.632020000000004</v>
       </c>
       <c r="C65">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>26.421600000000002</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="2"/>
+        <v>76.886856000000009</v>
+      </c>
+      <c r="G65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>21.236000000000001</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>57.124839999999999</v>
+        <v>61.372040000000005</v>
       </c>
       <c r="C66">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>25.4832</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="2"/>
+        <v>74.156112000000007</v>
+      </c>
+      <c r="G66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>20.486000000000001</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B102" si="1">2.69*A67</f>
-        <v>55.107340000000001</v>
+        <f t="shared" ref="B67:B102" si="3">2.89*A67</f>
+        <v>59.204540000000001</v>
       </c>
       <c r="C67">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <f t="shared" ref="E67:E102" si="4">A67*1.2</f>
+        <v>24.583200000000001</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F102" si="5">2.91*E67</f>
+        <v>71.537112000000008</v>
+      </c>
+      <c r="G67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>19.765999999999998</v>
       </c>
       <c r="B68">
-        <f t="shared" si="1"/>
-        <v>53.170539999999995</v>
+        <f t="shared" si="3"/>
+        <v>57.123739999999998</v>
       </c>
       <c r="C68">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <f t="shared" si="4"/>
+        <v>23.719199999999997</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="5"/>
+        <v>69.022871999999992</v>
+      </c>
+      <c r="G68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>19.074000000000002</v>
       </c>
       <c r="B69">
-        <f t="shared" si="1"/>
-        <v>51.309060000000002</v>
+        <f t="shared" si="3"/>
+        <v>55.123860000000008</v>
       </c>
       <c r="C69">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <f t="shared" si="4"/>
+        <v>22.8888</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="5"/>
+        <v>66.606408000000002</v>
+      </c>
+      <c r="G69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>18.41</v>
       </c>
       <c r="B70">
-        <f t="shared" si="1"/>
-        <v>49.5229</v>
+        <f t="shared" si="3"/>
+        <v>53.204900000000002</v>
       </c>
       <c r="C70">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <f t="shared" si="4"/>
+        <v>22.091999999999999</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="5"/>
+        <v>64.287719999999993</v>
+      </c>
+      <c r="G70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>17.771000000000001</v>
       </c>
       <c r="B71">
-        <f t="shared" si="1"/>
-        <v>47.803989999999999</v>
+        <f t="shared" si="3"/>
+        <v>51.358190000000008</v>
       </c>
       <c r="C71">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <f t="shared" si="4"/>
+        <v>21.325199999999999</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="5"/>
+        <v>62.056331999999998</v>
+      </c>
+      <c r="G71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>17.158000000000001</v>
       </c>
       <c r="B72">
-        <f t="shared" si="1"/>
-        <v>46.15502</v>
+        <f t="shared" si="3"/>
+        <v>49.586620000000003</v>
       </c>
       <c r="C72">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <f t="shared" si="4"/>
+        <v>20.589600000000001</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="5"/>
+        <v>59.915736000000003</v>
+      </c>
+      <c r="G72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>16.568000000000001</v>
       </c>
       <c r="B73">
-        <f t="shared" si="1"/>
-        <v>44.567920000000001</v>
+        <f t="shared" si="3"/>
+        <v>47.881520000000009</v>
       </c>
       <c r="C73">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <f t="shared" si="4"/>
+        <v>19.881600000000002</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="5"/>
+        <v>57.855456000000011</v>
+      </c>
+      <c r="G73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>16.001999999999999</v>
       </c>
       <c r="B74">
-        <f t="shared" si="1"/>
-        <v>43.045379999999994</v>
+        <f t="shared" si="3"/>
+        <v>46.245779999999996</v>
       </c>
       <c r="C74">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <f t="shared" si="4"/>
+        <v>19.202399999999997</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="5"/>
+        <v>55.878983999999996</v>
+      </c>
+      <c r="G74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>15.457000000000001</v>
       </c>
       <c r="B75">
-        <f t="shared" si="1"/>
-        <v>41.579329999999999</v>
+        <f t="shared" si="3"/>
+        <v>44.670730000000006</v>
       </c>
       <c r="C75">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <f t="shared" si="4"/>
+        <v>18.548400000000001</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="5"/>
+        <v>53.975844000000002</v>
+      </c>
+      <c r="G75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>14.933</v>
       </c>
       <c r="B76">
-        <f t="shared" si="1"/>
-        <v>40.16977</v>
+        <f t="shared" si="3"/>
+        <v>43.156370000000003</v>
       </c>
       <c r="C76">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <f t="shared" si="4"/>
+        <v>17.919599999999999</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="5"/>
+        <v>52.146036000000002</v>
+      </c>
+      <c r="G76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>14.429</v>
       </c>
       <c r="B77">
-        <f t="shared" si="1"/>
-        <v>38.814010000000003</v>
+        <f t="shared" si="3"/>
+        <v>41.699809999999999</v>
       </c>
       <c r="C77">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <f t="shared" si="4"/>
+        <v>17.314799999999998</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="5"/>
+        <v>50.386067999999995</v>
+      </c>
+      <c r="G77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>13.944000000000001</v>
       </c>
       <c r="B78">
-        <f t="shared" si="1"/>
-        <v>37.509360000000001</v>
+        <f t="shared" si="3"/>
+        <v>40.298160000000003</v>
       </c>
       <c r="C78">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <f t="shared" si="4"/>
+        <v>16.732800000000001</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="5"/>
+        <v>48.692448000000006</v>
+      </c>
+      <c r="G78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>13.478</v>
       </c>
       <c r="B79">
-        <f t="shared" si="1"/>
-        <v>36.25582</v>
+        <f t="shared" si="3"/>
+        <v>38.951419999999999</v>
       </c>
       <c r="C79">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <f t="shared" si="4"/>
+        <v>16.1736</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="5"/>
+        <v>47.065176000000001</v>
+      </c>
+      <c r="G79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>13.029</v>
       </c>
       <c r="B80">
-        <f t="shared" si="1"/>
-        <v>35.048009999999998</v>
+        <f t="shared" si="3"/>
+        <v>37.65381</v>
       </c>
       <c r="C80">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <f t="shared" si="4"/>
+        <v>15.634799999999998</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="5"/>
+        <v>45.497267999999998</v>
+      </c>
+      <c r="G80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>12.598000000000001</v>
       </c>
       <c r="B81">
-        <f t="shared" si="1"/>
-        <v>33.888620000000003</v>
+        <f t="shared" si="3"/>
+        <v>36.408220000000007</v>
       </c>
       <c r="C81">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <f t="shared" si="4"/>
+        <v>15.117599999999999</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="5"/>
+        <v>43.992215999999999</v>
+      </c>
+      <c r="G81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>12.182</v>
       </c>
       <c r="B82">
-        <f t="shared" si="1"/>
-        <v>32.769579999999998</v>
+        <f t="shared" si="3"/>
+        <v>35.205980000000004</v>
       </c>
       <c r="C82">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <f t="shared" si="4"/>
+        <v>14.618399999999999</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="5"/>
+        <v>42.539543999999999</v>
+      </c>
+      <c r="G82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>11.782</v>
       </c>
       <c r="B83">
-        <f t="shared" si="1"/>
-        <v>31.693580000000001</v>
+        <f t="shared" si="3"/>
+        <v>34.049980000000005</v>
       </c>
       <c r="C83">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <f t="shared" si="4"/>
+        <v>14.138399999999999</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="5"/>
+        <v>41.142744</v>
+      </c>
+      <c r="G83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>11.397</v>
       </c>
       <c r="B84">
-        <f t="shared" si="1"/>
-        <v>30.65793</v>
+        <f t="shared" si="3"/>
+        <v>32.937330000000003</v>
       </c>
       <c r="C84">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <f t="shared" si="4"/>
+        <v>13.676399999999999</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="5"/>
+        <v>39.798324000000001</v>
+      </c>
+      <c r="G84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>11.026</v>
       </c>
       <c r="B85">
-        <f t="shared" si="1"/>
-        <v>29.659939999999999</v>
+        <f t="shared" si="3"/>
+        <v>31.86514</v>
       </c>
       <c r="C85">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <f t="shared" si="4"/>
+        <v>13.231199999999999</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="5"/>
+        <v>38.502791999999999</v>
+      </c>
+      <c r="G85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>10.667999999999999</v>
       </c>
       <c r="B86">
-        <f t="shared" si="1"/>
-        <v>28.696919999999999</v>
+        <f t="shared" si="3"/>
+        <v>30.83052</v>
       </c>
       <c r="C86">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <f t="shared" si="4"/>
+        <v>12.801599999999999</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="5"/>
+        <v>37.252655999999995</v>
+      </c>
+      <c r="G86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>10.324</v>
       </c>
       <c r="B87">
-        <f t="shared" si="1"/>
-        <v>27.771559999999997</v>
+        <f t="shared" si="3"/>
+        <v>29.836359999999999</v>
       </c>
       <c r="C87">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <f t="shared" si="4"/>
+        <v>12.3888</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="5"/>
+        <v>36.051408000000002</v>
+      </c>
+      <c r="G87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>9.9920000000000009</v>
       </c>
       <c r="B88">
-        <f t="shared" si="1"/>
-        <v>26.878480000000003</v>
+        <f t="shared" si="3"/>
+        <v>28.876880000000003</v>
       </c>
       <c r="C88">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <f t="shared" si="4"/>
+        <v>11.990400000000001</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="5"/>
+        <v>34.892064000000005</v>
+      </c>
+      <c r="G88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>9.673</v>
       </c>
       <c r="B89">
-        <f t="shared" si="1"/>
-        <v>26.02037</v>
+        <f t="shared" si="3"/>
+        <v>27.954970000000003</v>
       </c>
       <c r="C89">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <f t="shared" si="4"/>
+        <v>11.6076</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="5"/>
+        <v>33.778116000000004</v>
+      </c>
+      <c r="G89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>9.3640000000000008</v>
       </c>
       <c r="B90">
-        <f t="shared" si="1"/>
-        <v>25.189160000000001</v>
+        <f t="shared" si="3"/>
+        <v>27.061960000000003</v>
       </c>
       <c r="C90">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <f t="shared" si="4"/>
+        <v>11.236800000000001</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="5"/>
+        <v>32.699088000000003</v>
+      </c>
+      <c r="G90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>9.0670000000000002</v>
       </c>
       <c r="B91">
-        <f t="shared" si="1"/>
-        <v>24.390229999999999</v>
+        <f t="shared" si="3"/>
+        <v>26.20363</v>
       </c>
       <c r="C91">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <f t="shared" si="4"/>
+        <v>10.8804</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="5"/>
+        <v>31.661964000000001</v>
+      </c>
+      <c r="G91">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>8.7810000000000006</v>
       </c>
       <c r="B92">
-        <f t="shared" si="1"/>
-        <v>23.620890000000003</v>
+        <f t="shared" si="3"/>
+        <v>25.377090000000003</v>
       </c>
       <c r="C92">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <f t="shared" si="4"/>
+        <v>10.5372</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="5"/>
+        <v>30.663252000000004</v>
+      </c>
+      <c r="G92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>8.5050000000000008</v>
       </c>
       <c r="B93">
-        <f t="shared" si="1"/>
-        <v>22.878450000000001</v>
+        <f t="shared" si="3"/>
+        <v>24.579450000000005</v>
       </c>
       <c r="C93">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <f t="shared" si="4"/>
+        <v>10.206000000000001</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="5"/>
+        <v>29.699460000000006</v>
+      </c>
+      <c r="G93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>8.2390000000000008</v>
       </c>
       <c r="B94">
-        <f t="shared" si="1"/>
-        <v>22.16291</v>
+        <f t="shared" si="3"/>
+        <v>23.810710000000004</v>
       </c>
       <c r="C94">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <f t="shared" si="4"/>
+        <v>9.8868000000000009</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="5"/>
+        <v>28.770588000000004</v>
+      </c>
+      <c r="G94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>7.9820000000000002</v>
       </c>
       <c r="B95">
-        <f t="shared" si="1"/>
-        <v>21.471579999999999</v>
+        <f t="shared" si="3"/>
+        <v>23.067980000000002</v>
       </c>
       <c r="C95">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <f t="shared" si="4"/>
+        <v>9.5784000000000002</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="5"/>
+        <v>27.873144000000003</v>
+      </c>
+      <c r="G95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>7.734</v>
       </c>
       <c r="B96">
-        <f t="shared" si="1"/>
-        <v>20.804459999999999</v>
+        <f t="shared" si="3"/>
+        <v>22.35126</v>
       </c>
       <c r="C96">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <f t="shared" si="4"/>
+        <v>9.2807999999999993</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="5"/>
+        <v>27.007127999999998</v>
+      </c>
+      <c r="G96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>7.4950000000000001</v>
       </c>
       <c r="B97">
-        <f t="shared" si="1"/>
-        <v>20.161549999999998</v>
+        <f t="shared" si="3"/>
+        <v>21.660550000000001</v>
       </c>
       <c r="C97">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <f t="shared" si="4"/>
+        <v>8.9939999999999998</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="5"/>
+        <v>26.172540000000001</v>
+      </c>
+      <c r="G97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>7.2649999999999997</v>
       </c>
       <c r="B98">
-        <f t="shared" si="1"/>
-        <v>19.542849999999998</v>
+        <f t="shared" si="3"/>
+        <v>20.995850000000001</v>
       </c>
       <c r="C98">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <f t="shared" si="4"/>
+        <v>8.718</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="5"/>
+        <v>25.36938</v>
+      </c>
+      <c r="G98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>7.0419999999999998</v>
       </c>
       <c r="B99">
-        <f t="shared" si="1"/>
-        <v>18.942979999999999</v>
+        <f t="shared" si="3"/>
+        <v>20.351379999999999</v>
       </c>
       <c r="C99">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <f t="shared" si="4"/>
+        <v>8.4504000000000001</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="5"/>
+        <v>24.590664</v>
+      </c>
+      <c r="G99">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>6.827</v>
       </c>
       <c r="B100">
-        <f t="shared" si="1"/>
-        <v>18.364629999999998</v>
+        <f t="shared" si="3"/>
+        <v>19.730029999999999</v>
       </c>
       <c r="C100">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <f t="shared" si="4"/>
+        <v>8.1923999999999992</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="5"/>
+        <v>23.839883999999998</v>
+      </c>
+      <c r="G100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>6.62</v>
       </c>
       <c r="B101">
-        <f t="shared" si="1"/>
-        <v>17.8078</v>
+        <f t="shared" si="3"/>
+        <v>19.131800000000002</v>
       </c>
       <c r="C101">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <f t="shared" si="4"/>
+        <v>7.944</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="5"/>
+        <v>23.117039999999999</v>
+      </c>
+      <c r="G101">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>6.42</v>
       </c>
       <c r="B102">
-        <f t="shared" si="1"/>
-        <v>17.2698</v>
+        <f t="shared" si="3"/>
+        <v>18.553799999999999</v>
       </c>
       <c r="C102">
+        <v>100</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="4"/>
+        <v>7.7039999999999997</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="5"/>
+        <v>22.41864</v>
+      </c>
+      <c r="G102">
         <v>100</v>
       </c>
     </row>
